--- a/solar-system.xlsx
+++ b/solar-system.xlsx
@@ -244,9 +244,6 @@
     <t>Sheikh Muhmaad Suleh</t>
   </si>
   <si>
-    <t>Hasmat un Nisa</t>
-  </si>
-  <si>
     <t>Lal Sahab</t>
   </si>
   <si>
@@ -446,6 +443,9 @@
   </si>
   <si>
     <t>28/3/2021</t>
+  </si>
+  <si>
+    <t>usmat un Nisa</t>
   </si>
 </sst>
 </file>
@@ -897,7 +897,7 @@
         <v>43842</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="6">
         <v>451</v>
@@ -911,7 +911,7 @@
         <v>43842</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="6">
         <v>452</v>
@@ -925,7 +925,7 @@
         <v>43842</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" s="6">
         <v>453</v>
@@ -939,7 +939,7 @@
         <v>43842</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" s="6">
         <v>454</v>
@@ -953,7 +953,7 @@
         <v>43842</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" s="6">
         <v>455</v>
@@ -967,7 +967,7 @@
         <v>43933</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" s="6">
         <v>456</v>
@@ -981,7 +981,7 @@
         <v>43933</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" s="6">
         <v>457</v>
@@ -995,7 +995,7 @@
         <v>43994</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" s="6">
         <v>458</v>
@@ -1009,7 +1009,7 @@
         <v>43994</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="6">
         <v>459</v>
@@ -1037,7 +1037,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D15" s="6">
         <v>461</v>
@@ -1051,7 +1051,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" s="6">
         <v>462</v>
@@ -1065,7 +1065,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" s="6">
         <v>463</v>
@@ -1079,7 +1079,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D18" s="6">
         <v>464</v>
@@ -1093,7 +1093,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D19" s="6">
         <v>465</v>
@@ -1107,7 +1107,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D20" s="6">
         <v>466</v>
@@ -1121,7 +1121,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" s="6">
         <v>467</v>
@@ -1135,7 +1135,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D22" s="6">
         <v>468</v>
@@ -1161,7 +1161,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D24" s="6">
         <v>470</v>
@@ -1189,7 +1189,7 @@
         <v>12</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D26" s="6">
         <v>472</v>
@@ -1203,7 +1203,7 @@
         <v>12</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D27" s="6">
         <v>473</v>
@@ -1217,7 +1217,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D28" s="6">
         <v>474</v>
@@ -1231,7 +1231,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D29" s="6">
         <v>475</v>
@@ -1263,7 +1263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E7:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -1275,15 +1275,15 @@
   <sheetData>
     <row r="7" spans="5:6" ht="73.8" customHeight="1" x14ac:dyDescent="0.85">
       <c r="E7" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="5:6" ht="46.2" x14ac:dyDescent="0.85">
       <c r="E8" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F8" s="10">
         <f>'451-475'!$E$30</f>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="9" spans="5:6" ht="46.2" x14ac:dyDescent="0.85">
       <c r="E9" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F9" s="10">
         <f>'476-500 '!$E$30</f>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="10" spans="5:6" ht="46.2" x14ac:dyDescent="0.85">
       <c r="E10" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F10" s="10">
         <f>'601-625'!$E$30</f>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="11" spans="5:6" ht="46.2" x14ac:dyDescent="0.85">
       <c r="E11" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F11" s="10">
         <f>'626-650'!$E$30</f>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="12" spans="5:6" ht="46.2" x14ac:dyDescent="0.85">
       <c r="E12" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F12" s="10">
         <f>'651-onward'!$E$24</f>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="13" spans="5:6" ht="46.2" x14ac:dyDescent="0.85">
       <c r="E13" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F13" s="10">
         <v>147466</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="14" spans="5:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.85">
       <c r="E14" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F14" s="11">
         <f>SUM(F8:F13)</f>
@@ -1384,7 +1384,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" s="6">
         <v>476</v>
@@ -1398,7 +1398,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6" s="6">
         <v>477</v>
@@ -1412,7 +1412,7 @@
         <v>44199</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" s="6">
         <v>478</v>
@@ -1440,7 +1440,7 @@
         <v>44258</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" s="6">
         <v>480</v>
@@ -1454,7 +1454,7 @@
         <v>44258</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" s="6">
         <v>481</v>
@@ -1468,7 +1468,7 @@
         <v>44258</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11" s="6">
         <v>482</v>
@@ -1482,7 +1482,7 @@
         <v>44289</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D12" s="6">
         <v>483</v>
@@ -1496,7 +1496,7 @@
         <v>44289</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" s="6">
         <v>484</v>
@@ -1510,7 +1510,7 @@
         <v>44289</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D14" s="6">
         <v>485</v>
@@ -1524,7 +1524,7 @@
         <v>44289</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D15" s="6">
         <v>486</v>
@@ -1538,7 +1538,7 @@
         <v>44319</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D16" s="6">
         <v>487</v>
@@ -1552,7 +1552,7 @@
         <v>44350</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D17" s="6">
         <v>488</v>
@@ -1566,7 +1566,7 @@
         <v>44350</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D18" s="6">
         <v>489</v>
@@ -1580,7 +1580,7 @@
         <v>44350</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D19" s="6">
         <v>490</v>
@@ -1594,7 +1594,7 @@
         <v>44350</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D20" s="6">
         <v>491</v>
@@ -1608,7 +1608,7 @@
         <v>44350</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D21" s="6">
         <v>492</v>
@@ -1622,7 +1622,7 @@
         <v>44350</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D22" s="6">
         <v>493</v>
@@ -1636,7 +1636,7 @@
         <v>44350</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D23" s="6">
         <v>494</v>
@@ -1650,7 +1650,7 @@
         <v>44350</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D24" s="6">
         <v>495</v>
@@ -1664,7 +1664,7 @@
         <v>44350</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D25" s="6">
         <v>496</v>
@@ -1678,7 +1678,7 @@
         <v>44350</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D26" s="6">
         <v>497</v>
@@ -1692,7 +1692,7 @@
         <v>44350</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D27" s="6">
         <v>498</v>
@@ -1706,7 +1706,7 @@
         <v>44380</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" s="6">
         <v>499</v>
@@ -1720,7 +1720,7 @@
         <v>44380</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D29" s="6">
         <v>500</v>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="27" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B27" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>34</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="28" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B28" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>34</v>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="29" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B29" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>27</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="5" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>35</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="6" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>36</v>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="7" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B7" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>37</v>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="8" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B8" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>38</v>
@@ -2236,7 +2236,7 @@
     </row>
     <row r="9" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B9" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>39</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="10" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>40</v>
@@ -2264,7 +2264,7 @@
     </row>
     <row r="11" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B11" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>41</v>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="12" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>42</v>
@@ -2292,7 +2292,7 @@
     </row>
     <row r="13" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B13" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>43</v>
@@ -2306,7 +2306,7 @@
     </row>
     <row r="14" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B14" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>44</v>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="15" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B15" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>45</v>
@@ -2334,7 +2334,7 @@
     </row>
     <row r="16" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B16" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>46</v>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="17" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B17" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>48</v>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="18" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B18" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>49</v>
@@ -2376,7 +2376,7 @@
     </row>
     <row r="19" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B19" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>50</v>
@@ -2390,7 +2390,7 @@
     </row>
     <row r="20" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B20" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>51</v>
@@ -2404,7 +2404,7 @@
     </row>
     <row r="21" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B21" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>52</v>
@@ -2418,7 +2418,7 @@
     </row>
     <row r="22" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B22" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>53</v>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="23" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B23" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>35</v>
@@ -2446,7 +2446,7 @@
     </row>
     <row r="24" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B24" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>54</v>
@@ -2460,7 +2460,7 @@
     </row>
     <row r="25" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B25" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>18</v>
@@ -2474,7 +2474,7 @@
     </row>
     <row r="26" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B26" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>55</v>
@@ -2488,7 +2488,7 @@
     </row>
     <row r="27" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B27" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>56</v>
@@ -2502,7 +2502,7 @@
     </row>
     <row r="28" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B28" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>57</v>
@@ -2516,7 +2516,7 @@
     </row>
     <row r="29" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B29" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>58</v>
@@ -2551,8 +2551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="5" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B5" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>59</v>
@@ -2593,7 +2593,7 @@
     </row>
     <row r="6" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B6" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>60</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="7" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B7" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>61</v>
@@ -2621,7 +2621,7 @@
     </row>
     <row r="8" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B8" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>50</v>
@@ -2764,7 +2764,7 @@
         <v>44534</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="D18" s="6">
         <v>664</v>
@@ -2778,7 +2778,7 @@
         <v>44534</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D19" s="6">
         <v>665</v>
@@ -2792,7 +2792,7 @@
         <v>44534</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D20" s="6">
         <v>666</v>
@@ -2806,7 +2806,7 @@
         <v>44534</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" s="6">
         <v>667</v>
@@ -2820,7 +2820,7 @@
         <v>44534</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D22" s="6">
         <v>668</v>
@@ -2834,7 +2834,7 @@
         <v>44534</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="6">
         <v>669</v>
